--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BFF6A-A883-4390-A007-BAABDA89AEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9590F310-9854-4244-AF77-95B8101E0EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="60" windowWidth="21945" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="543">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3243,6 +3243,49 @@
   </si>
   <si>
     <t>河北场景上线。处理线上反馈的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认财务数据提取场景最后的收尾工作，做好随时上线准备。
+确认上线任务，整理代码。
+处理薪酬分发场景反馈的bug。
+薪酬分发场景处理企业年金缴纳分支资金计划项无法出现的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理主数据维护场景出现的问题。
+延长主数据维护场景等待时间。
+主数据维护场景新增操作时在选择下拉框之后添加确认操作，保证下拉框选择成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认财务数据提取场景最后的收尾工作，做好随时上线准备。
+确认上线任务，整理代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理主数据维护场景出现的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看税费计提场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打码。
+开会讨论主数据维护场景现有问题与解决方案。
+研究主数据维护场景优化方案的可行性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车险公文填报场景添加票小密余额不足提示。
+税费计提场景修改水资源税的取数方式。
+评估讨论主数据维护场景优化方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税费计提新增流程分支。
+优化主数据维护场景。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4136,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="D376" sqref="D376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7753,25 +7796,52 @@
       <c r="C372" s="7" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D372" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B373" s="16">
         <v>45139</v>
       </c>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C373" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B374" s="16">
         <v>45140</v>
       </c>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C374" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B375" s="16">
         <v>45141</v>
       </c>
-    </row>
-    <row r="376" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C375" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B376" s="16">
         <v>45142</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -7793,6 +7863,90 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
     <mergeCell ref="B377:D377"/>
     <mergeCell ref="C378:D378"/>
     <mergeCell ref="B282:D282"/>
@@ -7817,90 +7971,6 @@
     <mergeCell ref="B294:D294"/>
     <mergeCell ref="C295:D295"/>
     <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9590F310-9854-4244-AF77-95B8101E0EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4312CB-2FD3-4996-AD37-69D4C4D96600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="60" windowWidth="21945" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="564">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3286,6 +3286,127 @@
   <si>
     <t>税费计提新增流程分支。
 优化主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税费计提新增流程分支。优化主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打码。
+查看与梳理主数据维护场景的发布代码。
+薪酬分发场景新分支增值税附加税和水利建设基金的取数操作。
+薪酬分发场景新分支增值税附加税和水利建设基金在财务共享系统中的填写操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成薪酬分发场景新分支增值税附加税附件和水利建设基金附件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成薪酬分发场景新分支增值税附加税附件和水利建设基金附件。
+整体测试薪酬分发场景新分支操作。
+继续梳理主数据维护场景发布代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理主数据维护场景发布流程。
+编写主数据维护场景发布流程文档，用于编写调用sql。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改税费计提场景增值税附加税结果文件显示金额。
+修复税费计提场景填写金额与财务共享本位币金额不一致的问题。
+修复税费计提场景excel转图片生成的图片无法上传的问题。
+梳理主数据维护脚本流程。
+梳理主数据维护场景发布流程，编写相应文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理主数据维护场景发布流程，编写相应文档。
+帮助内蒙进行主数据维护的职工新增与发布。
+优化主数据维护个性化校验。
+查看薪酬分发动态表单配置问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看发票勾选认证网页无法打开的问题。
+公共组件优化接管窗口最前。
+公共组件优化切换页面时在指定窗口结束。
+协调处理薪酬分发表单联动配置问题。
+脚本运行录屏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看发票勾选认证网页无法打开的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理主数据维护场景发布流程，编写相应文档。
+帮助内蒙进行主数据维护的职工新增与发布。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据维护场景重构。
+公文机器人新场景：收入核对的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主数据维护场景重构。公文机器人新场景：收入核对的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理主数据维护场景发布逻辑。
+实现主数据维护场景发布单元测试代码。
+重构主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景。
+查看分析讨论主数据维护白屏出现问题。
+职工发布添加修改发布状态的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景。
+主数据维护场景其他操作添加修改发布操作状态的操作。
+优化word复制格式的方法。
+实现批量生成招标简历word的方法。
+使用脚本批量生成招标简历word。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景。
+主数据维护场景其他操作添加修改发布操作状态的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景。
+主数据维护场景所有操作添加修改发布操作状态的操作。
+测试主数据维护场景。
+研究主数据维护sql实现发布的功能。
+帮助内蒙发布新增职工数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现主数据维护场景接口发布。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化当前主数据维护脚本。
+主数据维护场景重构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景。
+查看发票勾选认证场景页面打开失败bug。
+查看主数据维护sql发布文档。
+比对主数据维护场景发布sql，并根据数据找到对应的请求入参。
+实现主数据维护场景接口发布。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4177,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D379"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="D376" sqref="D376"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7853,16 +7974,156 @@
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36"/>
+      <c r="C378" s="36" t="s">
+        <v>543</v>
+      </c>
       <c r="D378" s="37"/>
     </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
         <v>45145</v>
       </c>
+      <c r="C379" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B380" s="16">
+        <v>45146</v>
+      </c>
+      <c r="C380" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B381" s="16">
+        <v>45147</v>
+      </c>
+      <c r="C381" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B382" s="16">
+        <v>45148</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="16">
+        <v>45149</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B385" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C385" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D385" s="37"/>
+    </row>
+    <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B386" s="16">
+        <v>45152</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B387" s="16">
+        <v>45153</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B388" s="16">
+        <v>45154</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B389" s="16">
+        <v>45155</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="16">
+        <v>45156</v>
+      </c>
+      <c r="C390" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B392" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C392" s="36"/>
+      <c r="D392" s="37"/>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B393" s="16">
+        <v>45159</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="112">
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
     <mergeCell ref="B370:D370"/>
     <mergeCell ref="C371:D371"/>
     <mergeCell ref="B363:D363"/>
@@ -7885,10 +8146,6 @@
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C162:D162"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B20:D20"/>
@@ -7901,8 +8158,6 @@
     <mergeCell ref="C106:D106"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="C63:D63"/>
@@ -7918,6 +8173,12 @@
     <mergeCell ref="B147:D147"/>
     <mergeCell ref="C141:D141"/>
     <mergeCell ref="B181:D181"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
     <mergeCell ref="C182:D182"/>
     <mergeCell ref="B253:D253"/>
     <mergeCell ref="C226:D226"/>
@@ -7935,6 +8196,8 @@
     <mergeCell ref="B246:D246"/>
     <mergeCell ref="B188:D188"/>
     <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
     <mergeCell ref="B287:D287"/>
     <mergeCell ref="C288:D288"/>
     <mergeCell ref="B274:D274"/>
@@ -7947,6 +8210,8 @@
     <mergeCell ref="B260:D260"/>
     <mergeCell ref="C261:D261"/>
     <mergeCell ref="C247:D247"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
     <mergeCell ref="B377:D377"/>
     <mergeCell ref="C378:D378"/>
     <mergeCell ref="B282:D282"/>
@@ -7969,8 +8234,6 @@
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="C302:D302"/>
     <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4312CB-2FD3-4996-AD37-69D4C4D96600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6DDFA2-FCDA-4D19-9182-74FF00731B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="574">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3407,6 +3407,63 @@
 查看主数据维护sql发布文档。
 比对主数据维护场景发布sql，并根据数据找到对应的请求入参。
 实现主数据维护场景接口发布。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化当前主数据维护脚本。主数据维护场景重构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务确认主数据维护场景优化方案。
+业务确认主数据维护场景重构方案中的问题。
+主数据维护场景重构分支实现银行变更处理。
+主数据维护场景重构分支实现客商新增处理。
+优化主数据维护场景，发布时添加重启功能处理白屏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化主数据维护场景，发布时添加重启功能处理白屏。
+测试优化后的主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化主数据维护场景，发布时添加重启功能处理白屏。
+测试优化后的主数据维护场景。
+优化版本主数据维护场景的上线与线上测试。
+重构主数据未出场景申请判断逻辑。
+重构主数据维护场景发布判断逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景发布判断逻辑。
+集团比赛，练舞录制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京津冀版本财务数据提取场景上线。
+京津冀版本月末结账场景上线。
+重构实现模板匹配模拟点击的方法。
+重构实现主数据维护场景登录流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新场景EBS月度分析报告下载的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新场景EBS月度分析报告下载场景的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新场景EBS月度分析报告下载场景的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新场景EBS月度分析报告下载场景的开发。
+主数据维护场景客商新增流程实现发布之后重启的功能。
+处理IE浏览器私密连接警告问题。
+实现ebs系统登录操作。
+实现EBS月度分析报告下载场景的登录操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4298,10 +4355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="C390" sqref="C390"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8112,16 +8169,187 @@
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36"/>
+      <c r="C392" s="36" t="s">
+        <v>564</v>
+      </c>
       <c r="D392" s="37"/>
     </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
         <v>45159</v>
       </c>
+      <c r="C393" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B394" s="16">
+        <v>45160</v>
+      </c>
+      <c r="C394" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B395" s="16">
+        <v>45161</v>
+      </c>
+      <c r="C395" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B396" s="16">
+        <v>45162</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="16">
+        <v>45163</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B399" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C399" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="D399" s="37"/>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B400" s="16">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B401" s="16">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B402" s="16">
+        <v>45168</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="114">
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
     <mergeCell ref="B370:D370"/>
@@ -8146,94 +8374,6 @@
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6DDFA2-FCDA-4D19-9182-74FF00731B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24C19D-145A-4AA7-9645-B5F15AB001E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="582">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3464,6 +3464,57 @@
 处理IE浏览器私密连接警告问题。
 实现ebs系统登录操作。
 实现EBS月度分析报告下载场景的登录操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理主数据维护场景发布流程。
+配置EBS客户端运行环境。
+实现EBS客户端登录操作。
+优化模板匹配点击公共组件。
+实现EBS客户端查找操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS客户端查询数据有异常，等取得正常数据之后进行后续操作。
+实现EBS客户端查找的时候的异常处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据EBS月度分析报告下载场景优化Win32模拟鼠标控制的方法。
+EBS月度分析报告下载场景实现ebs客户端下载指定报告的操作。
+EBS月度分析报告下载场景结果文件的生成。
+EBS月度分析报告下载场景添加对注意弹窗报错的处理。
+测试EBS月度分析报告下载场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS月度分析报告下载场景实现财务共享接口获取请求编号的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月末结账场景配置表添加国源公司定制。
+优化win32截图时图片大小的问题。
+EBS月度分析报告下载场景实现财务共享接口获取请求编号的方法。
+测试EBS月度分析报告下载场景。
+EBS月度分析报告下载场景处理所有安全站点检查问题。
+优化关闭ie浏览器selenium的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试EBS月度分析报告下载场景。
+处理分辨率导致脚本的适配问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试EBS月度分析报告下载场景。
+更新自动导入公共组件。
+查看主数据维护场景更新之后的运行情况，确认上线无误之后合并分支代码至主干。
+重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试EBS月度分析报告下载场景。
+重构主数据维护场景代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4355,10 +4406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="C397" sqref="C397"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8243,25 +8294,168 @@
       </c>
       <c r="D399" s="37"/>
     </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
         <v>45166</v>
       </c>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C400" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B401" s="16">
         <v>45167</v>
       </c>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C401" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B402" s="16">
         <v>45168</v>
       </c>
+      <c r="C402" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B403" s="16">
+        <v>45169</v>
+      </c>
+      <c r="C403" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="16">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B406" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C406" s="36"/>
+      <c r="D406" s="37"/>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B407" s="16">
+        <v>45173</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="114">
+  <mergeCells count="116">
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
     <mergeCell ref="B398:D398"/>
     <mergeCell ref="C399:D399"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
     <mergeCell ref="B384:D384"/>
     <mergeCell ref="C385:D385"/>
     <mergeCell ref="B377:D377"/>
@@ -8284,96 +8478,6 @@
     <mergeCell ref="C316:D316"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24C19D-145A-4AA7-9645-B5F15AB001E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073974D-33E0-4645-8D8B-B5BAB77C077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3507,14 +3507,18 @@
   </si>
   <si>
     <t>测试EBS月度分析报告下载场景。
+重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试EBS月度分析报告下载场景。
 更新自动导入公共组件。
 查看主数据维护场景更新之后的运行情况，确认上线无误之后合并分支代码至主干。
-重构主数据维护场景代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试EBS月度分析报告下载场景。
-重构主数据维护场景代码。</t>
+重构主数据维护场景代码。
+优化EBS系统Oracle报错的定位问题。
+EBS月度分析报告下载场景优化结果文件判定。
+EBS月度分析报告下载场景优化查找请求窗口判定与异常处理。
+EBS月度分析报告下载场景优化下载窗口判定。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4408,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="D403" sqref="D403"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8327,15 +8331,15 @@
         <v>579</v>
       </c>
     </row>
-    <row r="403" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="B403" s="16">
         <v>45169</v>
       </c>
       <c r="C403" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="D403" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="D403" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="404" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D073974D-33E0-4645-8D8B-B5BAB77C077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53836B1C-E4EE-42F2-8508-745B713EEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="597">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3519,6 +3519,98 @@
 EBS月度分析报告下载场景优化结果文件判定。
 EBS月度分析报告下载场景优化查找请求窗口判定与异常处理。
 EBS月度分析报告下载场景优化下载窗口判定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS月度分析报告下载场景的测试与上线。
+公文机器人新场景：收入核对的开发。
+重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试EBS月度分析报告下载场景。
+重构主数据维护场景企查查调用代码。
+梳理主数据维护场景调用企查查逻辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先一上线发票勾选认证场景。
+整理浏览器工具代码。
+评估商情取数场景的可行性。
+发票勾选认证场景更新内蒙古信用代码配置表。
+整理内外网穿透废弃代码。
+研究阿里云NLP自训练模型与接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究阿里云NLP自训练模型与接口。
+测试新的图像匹配公共组件并对其功能进行各种封装。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究阿里云NLP自训练模型与接口。
+学习NLP相关代码。
+研究NLP算法。
+爬取商情取数场景的数据。
+实现通过NLP计算相似度匹配商情数据的识别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS月度分析报告下载场景的测试与上线。公文机器人新场景：收入核对的开发。重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看NLP计算相似度匹配商情数据的识别的准确率，评估可行性。
+查看内蒙古营销报表图片上传场景问题。
+重构主数据维护场景摆渡系统接口代码。
+查看主数据维护场景发布异常的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景摆渡系统代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看NLP计算相似度匹配商情数据的识别的准确率，评估可行性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税费计提场景增值税附加与水利建设基金的取数由从综合查询取数改为通过增值税转出未交增值税计算获取。
+重构主数据维护场景摆渡系统代码。
+测试重构的模板匹配方法。
+优化模板匹配方法。
+优化EBS月度分析报告下载场景的模板匹配代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS月度分析报告下载场景使用优化的模板匹配方法控制EBS客户端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS月度分析报告下载场景使用优化的模板匹配方法控制EBS客户端。
+整理模板匹配代码。
+优化主数据维护场景内外网穿透判断逻辑。
+讨论月末结账场景先一子科目获取的问题。
+添加获取子科目代码的接口方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化月末结账场景子科目获取的问题。
+重构主数据维护场景代码。
+公文机器人新场景：收入核对的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化月末结账场景子科目获取的问题。重构主数据维护场景代码。公文机器人新场景：收入核对的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票勾选认证场景添加先一公司上线配置。
+优化月末结账场景子科目获取的问题。
+月末结账场景获取科目余额方法添加查询子科目余额的功能。
+月末结账场景添加先一公司子科目组校验的功能。
+搭建公文：收入核对场景框架。
+查看公文：收入核对场景相关文档。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3579,7 +3671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -3986,11 +4078,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4129,6 +4247,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4410,10 +4534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C403" sqref="C403"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8342,9 +8466,15 @@
         <v>580</v>
       </c>
     </row>
-    <row r="404" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B404" s="16">
         <v>45170</v>
+      </c>
+      <c r="C404" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8356,16 +8486,127 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="36"/>
-      <c r="D406" s="37"/>
-    </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C406" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="D406" s="48"/>
+    </row>
+    <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
         <v>45173</v>
       </c>
+      <c r="C407" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D407" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B408" s="16">
+        <v>45174</v>
+      </c>
+      <c r="C408" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="D408" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B409" s="16">
+        <v>45175</v>
+      </c>
+      <c r="C409" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D409" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B410" s="16">
+        <v>45176</v>
+      </c>
+      <c r="C410" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="16">
+        <v>45177</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D411" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B413" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C413" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="D413" s="37"/>
+    </row>
+    <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B414" s="16">
+        <v>45180</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B415" s="16">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B416" s="16">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B417" s="16">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="16">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B420" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C420" s="36"/>
+      <c r="D420" s="37"/>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B421" s="16">
+        <v>45187</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="120">
     <mergeCell ref="B405:D405"/>
     <mergeCell ref="C406:D406"/>
     <mergeCell ref="B391:D391"/>
@@ -8390,6 +8631,8 @@
     <mergeCell ref="C254:D254"/>
     <mergeCell ref="B398:D398"/>
     <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="B161:D161"/>
@@ -8412,6 +8655,8 @@
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
@@ -8434,8 +8679,8 @@
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="B154:D154"/>
     <mergeCell ref="C155:D155"/>
@@ -8458,8 +8703,10 @@
     <mergeCell ref="B211:D211"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
     <mergeCell ref="B384:D384"/>
     <mergeCell ref="C385:D385"/>
     <mergeCell ref="B377:D377"/>
@@ -8480,8 +8727,6 @@
     <mergeCell ref="C323:D323"/>
     <mergeCell ref="B315:D315"/>
     <mergeCell ref="C316:D316"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53836B1C-E4EE-42F2-8508-745B713EEBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF25BE0-BEAB-4F7E-8FAE-D6BFB7545D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="60" windowWidth="21945" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="600">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3611,6 +3611,20 @@
 月末结账场景添加先一公司子科目组校验的功能。
 搭建公文：收入核对场景框架。
 查看公文：收入核对场景相关文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写大唐集团电子会计档案管理系统_V1.2_性能测试报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月末结账场景的测试与上线。
+查看公文：收入核对场景相关文档。
+编写大唐集团电子会计档案管理系统_V1.2_性能测试报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写大唐集团电子会计档案管理系统_V1.2_压力测试报告。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4537,7 +4551,7 @@
   <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+      <selection activeCell="D414" sqref="D414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8567,20 +8581,38 @@
       <c r="C414" s="7" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D414" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B415" s="16">
         <v>45181</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D415" s="8" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416" s="16">
         <v>45182</v>
       </c>
+      <c r="C416" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D416" s="8" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" s="16">
         <v>45183</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="418" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF25BE0-BEAB-4F7E-8FAE-D6BFB7545D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE727C-D737-401B-95C6-841170E138BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="60" windowWidth="21945" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="604">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3625,6 +3625,28 @@
   </si>
   <si>
     <t>编写大唐集团电子会计档案管理系统_V1.2_压力测试报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理代码。
+查看公文：收入核对场景相关文档。
+梳理公文：收入核对场景流程。
+重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公文机器人新场景：收入核对的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化公共组件截图方法因为多显示器导致报错的问题。
+优化模板图片导入的问题。
+综合查询接口在调用时统一对特殊公司进行特殊处理。
+编写大唐集团电子会计档案管理系统_V1.2_性能测试报告。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4548,10 +4570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D414" sqref="D414"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="C421" sqref="C421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8614,10 +8636,19 @@
       <c r="C417" s="7" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="418" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D417" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B418" s="16">
         <v>45184</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="D418" s="8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8632,13 +8663,55 @@
       <c r="C420" s="36"/>
       <c r="D420" s="37"/>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
         <v>45187</v>
       </c>
+      <c r="C421" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B422" s="16">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B423" s="16">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B424" s="16">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="16">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B427" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C427" s="36"/>
+      <c r="D427" s="37"/>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B428" s="16">
+        <v>45194</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="122">
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
     <mergeCell ref="B405:D405"/>
     <mergeCell ref="C406:D406"/>
     <mergeCell ref="B391:D391"/>
@@ -8647,6 +8720,16 @@
     <mergeCell ref="C371:D371"/>
     <mergeCell ref="B363:D363"/>
     <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
     <mergeCell ref="C175:D175"/>
     <mergeCell ref="B181:D181"/>
     <mergeCell ref="B246:D246"/>
@@ -8661,10 +8744,10 @@
     <mergeCell ref="B274:D274"/>
     <mergeCell ref="C275:D275"/>
     <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="B161:D161"/>
@@ -8687,8 +8770,6 @@
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
@@ -8711,6 +8792,8 @@
     <mergeCell ref="B98:D98"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="C162:D162"/>
@@ -8735,16 +8818,10 @@
     <mergeCell ref="B211:D211"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
     <mergeCell ref="B356:D356"/>
     <mergeCell ref="C357:D357"/>
     <mergeCell ref="B329:D329"/>
@@ -8755,10 +8832,6 @@
     <mergeCell ref="B334:D334"/>
     <mergeCell ref="C335:D335"/>
     <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE727C-D737-401B-95C6-841170E138BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D54AF-9F3F-4081-B91F-36FE4DCA2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="60" windowWidth="21945" windowHeight="15540" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="616">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3647,6 +3647,81 @@
 优化模板图片导入的问题。
 综合查询接口在调用时统一对特殊公司进行特殊处理。
 编写大唐集团电子会计档案管理系统_V1.2_性能测试报告。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写电子档案系统文档。迭代升级公共组件控制Edge浏览器。公文机器人新场景：收入核对的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现自动下载Edge_driver的方法。
+迭代升级控制浏览器的公共组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理公共组件。
+查看Edge浏览器是否可以控制EBS系统。
+实现获取Edge浏览器各个重要信息的方法。
+研究selenium控制Edge浏览器的方法。
+实现并整理控制谷歌、Edge、IE浏览器的封装。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究selenium控制edge后无法控制ie的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究selenium控制edge后无法控制ie的问题。
+收入核对场景实现获取主营业务收入的操作。
+收入核对场景实现获取其他业务收入的操作。
+收入核对场景实现获取个税返还收入的操作。
+收入核对场景实现获取自用煤收入的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理selenium相关代码。
+升级优化实现下载各个driver的方法。
+迭代升级控制浏览器的公共组件。
+测试公共组件控制Edge浏览器。
+查看selenium控制edge后无法控制ie的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务数据提取场景开发先一公司新需求。
+新场景：销项票分类的开发。
+新场景：日利润报表上报的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现收入核对场景指定月份的取数操作。
+实现收入核对场景历史数据缓存的存取操作。
+实现收入核对场景申报表数据修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现收入核对场景指定月份的取数操作。
+实现收入核对场景历史数据缓存的存取操作。
+实现收入核对场景申报表数据的解析。
+实现收入核对场景根据申报表数据进行的计算与调整。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理公共组件。
+查看Edge浏览器是否可以控制EBS系统。
+研究selenium控制Edge浏览器的方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务数据提取场景开发先一公司新需求。新场景：销项票分类的开发。新场景：日利润报表上报的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究谷歌浏览器插件对EBS月度分析报告下载场景中客户端的支持可行性。
+研究火狐浏览器对EBS月度分析报告下载场景中客户端的支持可行性。
+梳理财务数据提取场景开发先一公司新需求。
+整理实现综合查询接口取数实例化公共组件。
+发票勾选认证场景对新出现的弹窗进行处理。
+开发训练图片爬虫脚本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4570,10 +4645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D428"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="C421" sqref="C421"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="C428" sqref="C428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -8660,7 +8735,9 @@
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36"/>
+      <c r="C420" s="36" t="s">
+        <v>604</v>
+      </c>
       <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
@@ -8670,25 +8747,52 @@
       <c r="C421" s="7" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D421" s="8" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B422" s="16">
         <v>45188</v>
       </c>
-    </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C422" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D422" s="8" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B423" s="16">
         <v>45189</v>
       </c>
-    </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C423" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D423" s="8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B424" s="16">
         <v>45190</v>
       </c>
-    </row>
-    <row r="425" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C424" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D424" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B425" s="16">
         <v>45191</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D425" s="8" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8700,16 +8804,55 @@
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36"/>
+      <c r="C427" s="36" t="s">
+        <v>614</v>
+      </c>
       <c r="D427" s="37"/>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
         <v>45194</v>
       </c>
+      <c r="C428" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B429" s="16">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B430" s="16">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="16">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B433" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C433" s="36"/>
+      <c r="D433" s="37"/>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B434" s="16">
+        <v>45200</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="124">
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
     <mergeCell ref="B426:D426"/>
     <mergeCell ref="C427:D427"/>
     <mergeCell ref="B405:D405"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D54AF-9F3F-4081-B91F-36FE4DCA2FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9F7C0-741B-416B-8FB4-62F22864D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="60" windowWidth="21945" windowHeight="15540" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="624">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3712,16 +3712,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财务数据提取场景开发先一公司新需求。新场景：销项票分类的开发。新场景：日利润报表上报的开发。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究谷歌浏览器插件对EBS月度分析报告下载场景中客户端的支持可行性。
 研究火狐浏览器对EBS月度分析报告下载场景中客户端的支持可行性。
 梳理财务数据提取场景开发先一公司新需求。
 整理实现综合查询接口取数实例化公共组件。
 发票勾选认证场景对新出现的弹窗进行处理。
 开发训练图片爬虫脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS月度分析报告下载场景在win11上适配的调整与测试。财务数据提取场景开发先一公司新需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试收入核对场景并根据修复的bug。
+将所有用到综合查询取数的场景替换为公共组件操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现百度爬取图片的爬虫脚本。
+收入核对场景综合查询取数公共组件化。
+将公共组件化的综合查询取数操作添加至收入核对场景中。
+测试收入核对场景。
+根据临时业务需求，实现生成excel的脚本。
+查看收入核对场景自用煤取数不正确的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫爬取图图片。
+适配综合查询公共组件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共组件添加科目组合-辅助取数代码。
+对所有综合查询取数公共组件进行正式环境测试。
+适配税费计提场景对综合查询取数公共组件的适配并测试。
+适配经营分析场景对综合查询取数公共组件的适配并测试。
+适配会计报表编制场景对综合查询取数公共组件的适配并测试。
+适配财务数据提取场景对综合查询取数公共组件的适配并测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配财务数据提取场景对综合查询取数公共组件的适配并测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务数据提取场景开发先一公司新需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配财务数据提取场景对综合查询取数公共组件的适配并测试。
+优化EBS月度分析报告下载场景结果文件显示日期。
+查看银行对账线上反馈的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票勾选认证场景更新社会信用代码配置表。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4332,6 +4378,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4358,12 +4410,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4645,10 +4691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D434"/>
+  <dimension ref="A1:D443"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="C428" sqref="C428"/>
+    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
+      <selection activeCell="C435" sqref="C435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4698,9 +4744,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -4772,9 +4818,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -4843,9 +4889,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -8597,10 +8643,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -8805,7 +8851,7 @@
         <v>18</v>
       </c>
       <c r="C427" s="36" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D427" s="37"/>
     </row>
@@ -8814,22 +8860,43 @@
         <v>45194</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
+        <v>614</v>
+      </c>
+      <c r="D428" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B429" s="16">
         <v>45195</v>
       </c>
-    </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C429" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D429" s="8" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B430" s="16">
         <v>45196</v>
       </c>
-    </row>
-    <row r="431" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C430" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="D430" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B431" s="16">
         <v>45197</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="D431" s="8" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8846,73 +8913,101 @@
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
-        <v>45200</v>
+        <v>45206</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B435" s="16">
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B436" s="16">
+        <v>45208</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B437" s="16">
+        <v>45209</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B438" s="16">
+        <v>45210</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B439" s="16">
+        <v>45211</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="16">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B442" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C442" s="36"/>
+      <c r="D442" s="37"/>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B443" s="16">
+        <v>45215</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
+  <mergeCells count="126">
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
@@ -8937,44 +9032,68 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9F7C0-741B-416B-8FB4-62F22864D2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F1494-7CCC-40EB-85A2-131772870AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="638">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3767,7 +3767,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发票勾选认证场景更新社会信用代码配置表。</t>
+    <t>发票勾选认证场景更新社会信用代码配置表。
+测试优化后的公共组件在各个已使用的场景中的适配。
+商情取数场景爬取页面数据用于提供NLP识别。
+查看财务数据提取场景开发先一公司新需求并协调接口。
+主数据维护场景优化京津冀资源文件校验的bug。
+查看新场景：日利润报表上报的流程。
+查看新场景：销项票分类的相关文档。
+搭建销项发票分类场景框架。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发销项发票分类场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发销项发票分类场景。
+销项发票分类场景实现解析软件著作权excel的方法。
+销项发票分类场景实现解析发票excel数据的方法。
+实现对xls文件进行修改的方法并修改销项发票分类场景的结果文件。
+梳理销项发票分类场景获取单据编号的流程与识别合同信息的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理销项发票分类场景，确认需要协调的内容，简单搭建后续流程代码。
+协调明细账汇总场景的综合查询接口。
+查看明细账汇总场景的流程。
+搭建明细账汇总场景框架。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发明细账汇总场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试优化后的公共组件在各个已使用的场景中的适配。开发销项发票分类场景。开发明细账汇总场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现明细账汇总场景明细账数据取数。
+实现明细账汇总场景子科目明细账取数。
+爬虫爬取商情取数场景需要的数据。
+开发测试脚本控制文心一言。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看设备可靠信录入场景问题。
+发票勾选认证场景湖南环境添加全电发票适配。
+银行对账场景优化综合查询界面切换职责操作。
+财务数据提取场景优化内部往来结果文件汇总行输出。
+实现明细账汇总场景的结果文件生成。
+完成明细账汇总场景的开发并测试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接销项发票分类场景接口。
+继续开发销项发票分类场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景实现接口调用获取应收事务单据编号。
+销项发票分类场景实现获取软著数据的发票编号的操作。
+实现销项发票分类场景下载指定发票影像的操作。
+查看销项发票分类场景OCR需求并协调接口。
+查看薪酬分发场景bug。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发销项发票分类场景除了OCR识别外的所有操作。
+测试销项发票分类场景。
+优化销项发票分类场景重复下载与识别的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商情取数场景的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发销项发票分类场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现明细账汇总场景明细账数据取数。
+实现明细账汇总场景子科目明细账取数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬取整理销项发票分类场景中的销售发票申请影像，准备用于之后的OCR识别训练。
+搭建日利润报表上报场景。
+优化客户端操作与模板匹配方法。
+日利润报表上报场景实现大唐集团日利润管控系统的登录操作。
+公共组件添加等待窗口消失的方法。
+公共组件优化模板匹配时进行裁剪操作。
+日利润报表上报场景实现进入报表管理界面并展开所有公司的操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4378,12 +4470,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4410,6 +4496,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4691,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" workbookViewId="0">
-      <selection activeCell="C435" sqref="C435"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4744,9 +4836,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -4818,9 +4910,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -4889,9 +4981,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -8643,10 +8735,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -8908,45 +9000,86 @@
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36"/>
+      <c r="C433" s="36" t="s">
+        <v>628</v>
+      </c>
       <c r="D433" s="37"/>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
         <v>45206</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D434" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B435" s="16">
         <v>45207</v>
       </c>
-    </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C435" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D435" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B436" s="16">
         <v>45208</v>
       </c>
-    </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C436" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D436" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B437" s="16">
         <v>45209</v>
       </c>
-    </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C437" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="D437" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B438" s="16">
         <v>45210</v>
       </c>
-    </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C438" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D438" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B439" s="16">
         <v>45211</v>
       </c>
-    </row>
-    <row r="440" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C439" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D439" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B440" s="16">
         <v>45212</v>
+      </c>
+      <c r="C440" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D440" s="8" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -8961,29 +9094,138 @@
       <c r="C442" s="36"/>
       <c r="D442" s="37"/>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
         <v>45215</v>
       </c>
+      <c r="C443" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B444" s="16">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B445" s="16">
+        <v>45217</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B446" s="16">
+        <v>45218</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="16">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B449" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" s="36"/>
+      <c r="D449" s="37"/>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B450" s="16">
+        <v>45222</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B451" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="126">
+  <mergeCells count="128">
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
     <mergeCell ref="B441:D441"/>
     <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="C162:D162"/>
@@ -9008,70 +9250,18 @@
     <mergeCell ref="B211:D211"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="B363:D363"/>
     <mergeCell ref="C364:D364"/>
     <mergeCell ref="B398:D398"/>
@@ -9080,20 +9270,8 @@
     <mergeCell ref="C420:D420"/>
     <mergeCell ref="B412:D412"/>
     <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F1494-7CCC-40EB-85A2-131772870AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07482496-3329-4AA7-BF4B-108DF6F0186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="657">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3860,6 +3860,120 @@
 公共组件添加等待窗口消失的方法。
 公共组件优化模板匹配时进行裁剪操作。
 日利润报表上报场景实现进入报表管理界面并展开所有公司的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景、日利润报表上报场景的开发。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户提供的新的操作录屏重新设计日利润报表上报场景的流程。
+明细账汇总场景根据测试反馈的问题查看bug。
+明细账汇总场景优化查询期间。
+公共组件添加win32模拟按键操作。
+实现日利润报表上报场景展开所有公司并依次定位的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发日利润报表上报场景。</t>
+  </si>
+  <si>
+    <t>开发日利润报表上报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景添加对资源文件的xlsx适配。
+实现日利润报表上报场景计算顶级公司下级所有明细单位报表的操作。
+实现日利润报表上报场景检查日利润报表的操作。
+实现日利润报表上报场景报表完成操作。
+实现日利润报表上报场景关闭页签操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现日利润报表上报场景汇总数据操作。
+实现日利润报表上报场景校验报表操作。
+实现日利润报表上报场景确定系统提示操作。
+实现日利润报表上报场景确定系统消息操作。
+实现日利润报表上报场景检查报表操作。
+测试日利润报表场景所有在客户端上的整体操作流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发日利润报表上报场景。
+实现日利润报表场景下载报表并检查数据的操作。
+测试日利润报表上报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现日利润报表上报场景登录时输入日期。
+实现日利润报表上报场景系统中多日期切换。
+实现日利润报表上报场景报表下载操作。
+测试日利润报表上报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户讨论需求并根据相应要求开发日利润报表上报场景剩余功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理代码。
+实现下载报表并根据日期公司分类的操作。
+实现校验报表折旧费的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将pdf转图片与excel转图片方法生成的结果修改为jpg图片。
+优化等待文件出现的方法使其也可以检测文件夹。
+完成所有公司下载日利润报表的操作并测试。
+处理下载的日利润报表并计算汇总金额的功能。
+研究乌沙山VPN。
+实现获取报表子公司报表合计数据的判断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究selenium接管浏览器控制询价系统的操作。
+研究乌沙山电力负荷数据采集操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究selenium接管浏览器控制询价系统的操作。
+修复日利润报表上报场景登录时输入的日期无效的问题。
+处理日利润报表上报场景月初时无法切换日期的问题。
+添加日利润报表上报场景表单参数跨月校验。
+实现乌沙山电力负荷数据采集场景经信网取数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看发票勾选认证场景问题。
+发票勾选认证场景添加登录失败校验。
+讨论设计乌沙山电力负荷数据采集场景的细节。
+实现乌沙山电力负荷数据采集场景经信网取数频率问题。
+实现乌沙山电力负荷数据采集场景经信网数据计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发与测试日利润报表上报场景。开发乌沙山电力负荷数据采集场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看内蒙古主数据维护场景企查查查询问题。
+优化主数据维护场景企查查的日志输出与报错提示。
+日利润报表上报场景添加未选择表单参数时的默认执行时间。
+日利润报表上报场景添加控制台上显示运行结果。
+实现乌沙山电力负荷数据采集场景电力数据的本地保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现乌沙山电力负荷数据采集场景电力数据的本地保存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现乌沙山电力负荷数据采集场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现乌沙山电力负荷数据采集场景经信网取数频率问题。
+实现乌沙山电力负荷数据采集场景经信网数据计算。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4470,6 +4584,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4496,12 +4616,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4783,10 +4897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4836,9 +4950,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -4910,9 +5024,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -4981,9 +5095,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -8735,10 +8849,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9091,7 +9205,9 @@
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36"/>
+      <c r="C442" s="36" t="s">
+        <v>638</v>
+      </c>
       <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
@@ -9101,25 +9217,52 @@
       <c r="C443" s="7" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D443" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B444" s="16">
         <v>45216</v>
       </c>
-    </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C444" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="D444" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B445" s="16">
         <v>45217</v>
       </c>
-    </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C445" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="D445" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B446" s="16">
         <v>45218</v>
       </c>
-    </row>
-    <row r="447" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C446" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D446" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B447" s="16">
         <v>45219</v>
+      </c>
+      <c r="C447" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D447" s="8" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -9131,33 +9274,85 @@
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36"/>
+      <c r="C449" s="36" t="s">
+        <v>652</v>
+      </c>
       <c r="D449" s="37"/>
     </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
         <v>45222</v>
       </c>
-    </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B451" s="16"/>
+      <c r="C450" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="D450" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B451" s="16">
+        <v>45223</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D451" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B452" s="16">
+        <v>45224</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="D452" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B453" s="16">
+        <v>45225</v>
+      </c>
+      <c r="C453" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D453" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="16">
+        <v>45226</v>
+      </c>
+      <c r="C454" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="D454" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B456" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C456" s="36"/>
+      <c r="D456" s="37"/>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B457" s="16">
+        <v>45229</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
+  <mergeCells count="130">
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
     <mergeCell ref="B441:D441"/>
@@ -9180,8 +9375,8 @@
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="B282:D282"/>
     <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
     <mergeCell ref="B161:D161"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="B91:D91"/>
@@ -9202,8 +9397,6 @@
     <mergeCell ref="C148:D148"/>
     <mergeCell ref="C120:D120"/>
     <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B13:D13"/>
@@ -9226,8 +9419,8 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="B154:D154"/>
     <mergeCell ref="C155:D155"/>
@@ -9250,6 +9443,10 @@
     <mergeCell ref="B211:D211"/>
     <mergeCell ref="C212:D212"/>
     <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
     <mergeCell ref="B315:D315"/>
     <mergeCell ref="C316:D316"/>
     <mergeCell ref="B356:D356"/>
@@ -9262,6 +9459,8 @@
     <mergeCell ref="B334:D334"/>
     <mergeCell ref="C335:D335"/>
     <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
     <mergeCell ref="B363:D363"/>
     <mergeCell ref="C364:D364"/>
     <mergeCell ref="B398:D398"/>
@@ -9270,8 +9469,20 @@
     <mergeCell ref="C420:D420"/>
     <mergeCell ref="B412:D412"/>
     <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07482496-3329-4AA7-BF4B-108DF6F0186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86742AE9-D89C-4090-BB04-9B325D878F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="668">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3974,6 +3974,73 @@
   <si>
     <t>实现乌沙山电力负荷数据采集场景经信网取数频率问题。
 实现乌沙山电力负荷数据采集场景经信网数据计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现乌沙山电力负荷数据采集场景取数并计算。
+实现乌沙山电力负荷数据采集场景负荷数据的计算。
+实现乌沙山电力负荷数据采集场景负荷数据的保存操作。
+实现乌沙山电力负荷数据采集场景负荷数据的补算操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试乌沙山电力负荷数据采集场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据爬取的数据，校验电力负荷数据采集场景计算是否有误。
+调整电力负荷数据采集场景计算操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试乌沙山电力负荷数据采集场景。
+整理代码。
+实际运行乌沙山电力负荷数据采集场景取数之后检测运行数据。
+处理日利润报表上报场景计算未成功的问题。
+晚上挂机爬取电力负荷数据采集场景数据。
+优化浏览器被手动关闭时的重新登陆操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票勾选认证场景国税系统弹窗界面被修改，进行适配处理。
+优化多屏幕截图公共组件截不全的问题。
+优化乌沙山电力负荷数据采集场景电力数据保存的结果文件，从json变为方便验证的excel格式。
+处理发票勾选认证场景登录时点击办税人之后的新弹窗。
+乌沙山电力负荷数据采集场景调整结构，实现将电力数据保存至结果文件excel中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午体检。
+查看发票勾选认证线上反馈的问题。
+查看主数据维护场景线上反馈的问题。
+设备可靠性录入场景修改选择辅机名称时报错的问题。
+日利润报表上报场景优化登录失败报错时的提示并添加处理操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理代码。
+设备可靠性录入场景添加报错截图。
+乌沙山电力负荷数据采集场景实现将负荷数据保存至结果文件excel中。
+乌沙山电力负荷数据采集场景优化所有取数异常中断时的特殊处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试销项发票分类场景的OCR接口。
+完成销项发票分类场景开发。
+根据需求调整乌沙山电力负荷数据采集场景上传数据库操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山电力负荷数据采集场景实现将负荷数据保存至结果文件excel中。
+乌沙山电力负荷数据采集场景优化所有取数异常中断时的特殊处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山电力负荷数据采集场景实现将负荷数据保存至结果文件excel中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发乌沙山电力负荷数据采集场景。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4897,10 +4964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D457"/>
+  <dimension ref="A1:D465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="C452" sqref="C452"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9343,60 +9410,152 @@
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36"/>
+      <c r="C456" s="36" t="s">
+        <v>667</v>
+      </c>
       <c r="D456" s="37"/>
     </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
         <v>45229</v>
       </c>
+      <c r="C457" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D457" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B458" s="16">
+        <v>45230</v>
+      </c>
+      <c r="C458" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D458" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B459" s="16">
+        <v>45231</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="D459" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B460" s="16">
+        <v>45232</v>
+      </c>
+      <c r="C460" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="D460" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="16">
+        <v>45233</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="D461" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B463" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C463" s="36"/>
+      <c r="D463" s="37"/>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B464" s="16">
+        <v>45236</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B465" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
+  <mergeCells count="132">
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
     <mergeCell ref="C169:D169"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B13:D13"/>
@@ -9421,66 +9580,48 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
     <mergeCell ref="C406:D406"/>
   </mergeCells>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86742AE9-D89C-4090-BB04-9B325D878F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6ED0F8-7A2A-40C4-85C4-D68270D857C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="679">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4041,6 +4041,71 @@
   </si>
   <si>
     <t>开发乌沙山电力负荷数据采集场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山电力负荷数据采集场景计算电厂负荷率平均值。
+测试识别销项发票的OCR。
+销项发票分类场景对接ocr识别销项发票。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成销项发票分类场景。完成乌沙山电力负荷数据采集场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光直接入库单入库场景通过控制台获取用户账号来作为入库提交人。
+查看乌沙山电力负荷数据采集场景负荷率计算时间错误的问题。
+测试销项发票分类场景ocr识别销项发票。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景处理某些客商因为名称问题导致无法查询到数据的bug。
+查看主数据维护场景bug。
+整理代码。
+继续梳理主数据维护重构版本场景。
+线上主数据维护场景处理主数据卡死报错的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看主数据维护场景问题。
+整理主数据维护场景界面操作流程。
+重构主数据维护场景界面操作。
+实现主数据维护场景通用的关闭窗口重置界面方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山电力负荷数据采集场景基于对方数据库的数据上传。
+银行对账场景对总部机关的流水进行适配调整。
+EBS项目预算填报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构主数据维护场景界面操作。
+实现主数据维护场景进入申请界面的操作。
+查看先一发票勾选认证场景运行失败的问题。
+排查财务数据提取场景无法勾选的问题。
+查看影像系统接口升级文档，准备进行优化。
+梳理所有场景，列出所有涉及到财务共享界面的场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理主数据维护场景界面操作流程。
+继续梳理主数据维护重构版本场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续梳理主数据维护重构版本场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看乌沙山电力负荷数据采集场景数据并处理问题。
+测试销项发票分类场景ocr识别销项发票。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销项发票分类场景添加ocr识别销项发票。
+继续梳理主数据维护重构版本场景。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4651,12 +4716,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4683,6 +4742,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4964,10 +5029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D465"/>
+  <dimension ref="A1:D471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="D458" sqref="D458"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="D465" sqref="D465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5017,9 +5082,9 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
@@ -5091,9 +5156,9 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
@@ -5162,9 +5227,9 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
@@ -8916,10 +8981,10 @@
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9479,59 +9544,153 @@
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36"/>
+      <c r="C463" s="36" t="s">
+        <v>669</v>
+      </c>
       <c r="D463" s="37"/>
     </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
         <v>45236</v>
       </c>
-    </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B465" s="16"/>
+      <c r="C464" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D464" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B465" s="16">
+        <v>45237</v>
+      </c>
+      <c r="C465" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="D465" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="B466" s="16">
+        <v>45238</v>
+      </c>
+      <c r="C466" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="D466" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B467" s="16">
+        <v>45239</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D467" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" ht="86.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="16">
+        <v>45240</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D468" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B470" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C470" s="36"/>
+      <c r="D470" s="37"/>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B471" s="16">
+        <v>45243</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
+  <mergeCells count="134">
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
     <mergeCell ref="C162:D162"/>
     <mergeCell ref="B154:D154"/>
     <mergeCell ref="C155:D155"/>
@@ -9556,74 +9715,48 @@
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6ED0F8-7A2A-40C4-85C4-D68270D857C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5576381-F8E8-478E-A36D-8BFB8359F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="60" windowWidth="21900" windowHeight="15540" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="694">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4106,6 +4106,92 @@
   <si>
     <t>销项发票分类场景添加ocr识别销项发票。
 继续梳理主数据维护重构版本场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看影像系统接口改动的相关文档。
+实现影像系统新的上传文件接口。
+实现影像系统新的查询ocr数据的接口。
+梳理统计所有脚本中设计财务共享的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理统计所有脚本中设计财务共享的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成影像系统接口改动的适配与测试。所有涉及到财务共享的脚本的升级适配。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行对账场景对总部机关的适配调整。
+梳理银行对账场景关于财务共享的流程。
+梳理月末结账场景关于财务共享的流程。
+梳理薪酬分发场景关于财务共享的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续重构主数据维护场景所有申请操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理代码。
+查看主数据维护场景线上反馈的问题。
+能投主数据维护场景客商新增添加根据所选公司进行核算主体切换的操作。
+重构主数据维护场景客商新增申请操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理代码。
+重构主数据维护场景代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看主数据维护场景企查查接口调用失败的问题。
+梳理所有场景中的财务共享接口。
+梳理所有场景中的综合查询接口。
+梳理所有场景中涉及到财务共享界面的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理所有场景中的财务共享接口。
+梳理所有场景中涉及到财务共享界面的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构实现主数据维护场景所有申请操作。
+乌沙山中台数据场景需要添加查询数据，查看场景逻辑并协调脚本取数。财务数据提取场景实现新能源获取资产清单所有公司合并数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究财务共享4.0的接口与界面，并开发相应公共组件。
+乌沙山经信网取数需要添加检测vpn的操作。
+乌沙山中台数据添加新增数据。
+EBS项目预算填报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现检测程序是否运行的公共组件。
+电力负荷数据采集场景添加vpn重拨的操作。
+查看EBS项目预算填报场景流程。
+配置调整EBS项目预算填报场景需要环境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看selenium控制edge运行ie的问题。
+实现EBS项目预算填报场景中EBS界面的操作。
+调整EBS项目预算填报场景客户端环境。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS项目预算填报场景无法进入客户端，查找问题原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBS项目预算填报场景无法进入客户端，查找问题原因。
+查看薪酬分发场景未下载封面的问题。
+补跑薪酬分发场景已运行的任务的封面。
+收入核对场景添加资源税收入与资源税收入税额的计算。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5029,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D471"/>
+  <dimension ref="A1:D485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="D465" sqref="D465"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="C481" sqref="C481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9613,18 +9699,138 @@
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36"/>
+      <c r="C470" s="36" t="s">
+        <v>681</v>
+      </c>
       <c r="D470" s="37"/>
     </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
         <v>45243</v>
       </c>
+      <c r="C471" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="D471" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B472" s="16">
+        <v>45244</v>
+      </c>
+      <c r="C472" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D472" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B473" s="16">
+        <v>45245</v>
+      </c>
+      <c r="C473" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D473" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B474" s="16">
+        <v>45246</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="D474" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="16">
+        <v>45247</v>
+      </c>
+      <c r="C475" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="D475" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B477" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C477" s="36"/>
+      <c r="D477" s="37"/>
+    </row>
+    <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B478" s="16">
+        <v>45250</v>
+      </c>
+      <c r="C478" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B479" s="16">
+        <v>45251</v>
+      </c>
+      <c r="C479" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B480" s="16">
+        <v>45252</v>
+      </c>
+      <c r="C480" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="B481" s="16">
+        <v>45253</v>
+      </c>
+      <c r="C481" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="16">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B484" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C484" s="36"/>
+      <c r="D484" s="37"/>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B485" s="16">
+        <v>45257</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="134">
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
+  <mergeCells count="138">
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
     <mergeCell ref="C175:D175"/>
     <mergeCell ref="B181:D181"/>
     <mergeCell ref="B246:D246"/>
@@ -9643,10 +9849,8 @@
     <mergeCell ref="C233:D233"/>
     <mergeCell ref="B282:D282"/>
     <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
     <mergeCell ref="B161:D161"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="B91:D91"/>
@@ -9715,10 +9919,6 @@
     <mergeCell ref="B225:D225"/>
     <mergeCell ref="B174:D174"/>
     <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
     <mergeCell ref="B315:D315"/>
     <mergeCell ref="C316:D316"/>
     <mergeCell ref="B356:D356"/>
@@ -9731,14 +9931,21 @@
     <mergeCell ref="B334:D334"/>
     <mergeCell ref="C335:D335"/>
     <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
     <mergeCell ref="B363:D363"/>
     <mergeCell ref="C364:D364"/>
     <mergeCell ref="B398:D398"/>
@@ -9748,15 +9955,16 @@
     <mergeCell ref="B412:D412"/>
     <mergeCell ref="C413:D413"/>
     <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5576381-F8E8-478E-A36D-8BFB8359F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D42B7D-6913-4F36-B2F6-EFEA09CA7419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="60" windowWidth="21900" windowHeight="15540" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="699">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4192,6 +4192,34 @@
 查看薪酬分发场景未下载封面的问题。
 补跑薪酬分发场景已运行的任务的封面。
 收入核对场景添加资源税收入与资源税收入税额的计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发EBS项目预算填报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看selenium控制edge运行ie的问题。
+实现EBS项目预算填报场景中EBS界面的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看凭证影像提取场景线上报错的问题。
+凭证影像提取场景添加对图片转pdf保存失败时的处理。
+查看主数据维护线上bug。
+整理代码。
+重构主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理代码。
+重构主数据维护场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">协调乌沙山使其云桌面可以连接经信网vpn。
+乌沙山中台数据添加新增数据。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5117,8 +5145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="C481" sqref="C481"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="D482" sqref="D482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -9768,7 +9796,9 @@
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36"/>
+      <c r="C477" s="36" t="s">
+        <v>694</v>
+      </c>
       <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
@@ -9778,6 +9808,9 @@
       <c r="C478" s="7" t="s">
         <v>690</v>
       </c>
+      <c r="D478" s="8" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="479" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B479" s="16">
@@ -9786,6 +9819,9 @@
       <c r="C479" s="7" t="s">
         <v>691</v>
       </c>
+      <c r="D479" s="8" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480" s="16">
@@ -9794,6 +9830,9 @@
       <c r="C480" s="7" t="s">
         <v>692</v>
       </c>
+      <c r="D480" s="8" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="481" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B481" s="16">
@@ -9802,10 +9841,19 @@
       <c r="C481" s="7" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="482" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D481" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B482" s="16">
         <v>45254</v>
+      </c>
+      <c r="C482" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="D482" s="8" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D42B7D-6913-4F36-B2F6-EFEA09CA7419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD92BC-5FFB-4C3D-A252-CAE2E2973F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="701">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4220,6 +4220,14 @@
     <t xml:space="preserve">协调乌沙山使其云桌面可以连接经信网vpn。
 乌沙山中台数据添加新增数据。
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山场景优化。开发EBS项目预算填报场景。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌沙山场景优化。财务共享4.0场景优化。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4815,6 +4823,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4824,10 +4838,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4856,12 +4870,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5143,10 +5151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="D482" sqref="D482"/>
+      <selection activeCell="C484" sqref="C484:D484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5196,19 +5204,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5270,19 +5278,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5341,18 +5349,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5410,18 +5418,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5479,18 +5487,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5548,18 +5556,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5617,18 +5625,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5686,18 +5694,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5755,18 +5763,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5813,18 +5821,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5882,18 +5890,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5948,18 +5956,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6033,18 +6041,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6102,18 +6110,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6171,18 +6179,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6240,18 +6248,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6309,18 +6317,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6378,18 +6386,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6447,18 +6455,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6516,16 +6524,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6583,16 +6591,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6650,16 +6658,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6717,16 +6725,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6784,16 +6792,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6840,16 +6848,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6907,16 +6915,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -6971,16 +6979,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7060,16 +7068,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7127,16 +7135,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7194,16 +7202,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7261,18 +7269,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7330,18 +7338,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7399,18 +7407,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7468,18 +7476,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7534,18 +7542,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7603,18 +7611,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7669,18 +7677,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7738,18 +7746,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7804,18 +7812,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7884,18 +7892,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7931,18 +7939,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8000,18 +8008,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8069,18 +8077,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8135,18 +8143,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8204,18 +8212,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8273,18 +8281,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8342,18 +8350,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8389,18 +8397,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8466,18 +8474,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8535,18 +8543,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8604,18 +8612,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8673,18 +8681,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8742,18 +8750,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8811,18 +8819,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8880,18 +8888,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8949,18 +8957,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9018,18 +9026,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9087,18 +9095,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9156,18 +9164,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9225,18 +9233,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9294,18 +9302,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9352,18 +9360,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9443,18 +9451,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9512,18 +9520,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9581,18 +9589,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9650,18 +9658,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9719,18 +9727,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9788,18 +9796,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="D477" s="37"/>
+      <c r="C477" s="33" t="s">
+        <v>699</v>
+      </c>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9857,24 +9865,179 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36"/>
-      <c r="D484" s="37"/>
+      <c r="C484" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="D484" s="34"/>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
         <v>45257</v>
       </c>
     </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B486" s="16">
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B487" s="16">
+        <v>45259</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B488" s="16">
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="16">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B491" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C491" s="33"/>
+      <c r="D491" s="34"/>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B492" s="16">
+        <v>45264</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="140">
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -9899,120 +10062,6 @@
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BD92BC-5FFB-4C3D-A252-CAE2E2973F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3D622-B0D0-4D29-BA38-A510E35E654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="702">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4228,6 +4228,10 @@
   </si>
   <si>
     <t>乌沙山场景优化。财务共享4.0场景优化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪酬分发场景优化提交影像异常处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4823,12 +4827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4838,10 +4836,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4870,6 +4868,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5154,7 +5158,7 @@
   <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="C484" sqref="C484:D484"/>
+      <selection activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5204,19 +5208,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5278,19 +5282,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5349,18 +5353,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5418,18 +5422,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5487,18 +5491,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5556,18 +5560,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="37"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5625,18 +5629,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="37"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="35"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="37"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5694,18 +5698,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="37"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5763,18 +5767,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="37"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5821,18 +5825,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C69" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="37"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5890,18 +5894,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="35"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="34"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5956,18 +5960,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="35"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="34"/>
+      <c r="D83" s="37"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6041,18 +6045,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="35"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="34"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6110,18 +6114,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="35"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C99" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="34"/>
+      <c r="D99" s="37"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6179,18 +6183,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="35"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C106" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="34"/>
+      <c r="D106" s="37"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6248,18 +6252,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="37"/>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C113" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="34"/>
+      <c r="D113" s="37"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6317,18 +6321,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
+      <c r="B119" s="33"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="33" t="s">
+      <c r="C120" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="34"/>
+      <c r="D120" s="37"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6386,18 +6390,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126" s="36"/>
-      <c r="D126" s="37"/>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="33" t="s">
+      <c r="C127" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="34"/>
+      <c r="D127" s="37"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6455,18 +6459,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="37"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="33" t="s">
+      <c r="C134" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="34"/>
+      <c r="D134" s="37"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6524,16 +6528,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="35"/>
-      <c r="C140" s="36"/>
-      <c r="D140" s="37"/>
+      <c r="B140" s="33"/>
+      <c r="C140" s="34"/>
+      <c r="D140" s="35"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="34"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6591,16 +6595,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="35"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="37"/>
+      <c r="B147" s="33"/>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="34"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="37"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6658,16 +6662,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
-      <c r="D154" s="37"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="34"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="37"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6725,16 +6729,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="35"/>
-      <c r="C161" s="36"/>
-      <c r="D161" s="37"/>
+      <c r="B161" s="33"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="35"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="33"/>
-      <c r="D162" s="34"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="37"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6792,16 +6796,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="35"/>
-      <c r="C168" s="36"/>
-      <c r="D168" s="37"/>
+      <c r="B168" s="33"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="37"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6848,16 +6852,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="35"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="37"/>
+      <c r="B174" s="33"/>
+      <c r="C174" s="34"/>
+      <c r="D174" s="35"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="37"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6915,16 +6919,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
-      <c r="D181" s="37"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="35"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="37"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -6979,16 +6983,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="37"/>
+      <c r="B188" s="33"/>
+      <c r="C188" s="34"/>
+      <c r="D188" s="35"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="34"/>
+      <c r="C189" s="36"/>
+      <c r="D189" s="37"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7068,16 +7072,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="35"/>
-      <c r="C197" s="36"/>
-      <c r="D197" s="37"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="34"/>
+      <c r="D197" s="35"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="33"/>
-      <c r="D198" s="34"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="37"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7135,16 +7139,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="35"/>
-      <c r="C204" s="36"/>
-      <c r="D204" s="37"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="35"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="33"/>
-      <c r="D205" s="34"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="37"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7202,16 +7206,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="34"/>
+      <c r="D211" s="35"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="34"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="37"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7269,18 +7273,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="35"/>
-      <c r="C218" s="36"/>
-      <c r="D218" s="37"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="34"/>
+      <c r="D218" s="35"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="33" t="s">
+      <c r="C219" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="34"/>
+      <c r="D219" s="37"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7338,18 +7342,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="35"/>
-      <c r="C225" s="36"/>
-      <c r="D225" s="37"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="34"/>
+      <c r="D225" s="35"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="34"/>
+      <c r="D226" s="37"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7407,18 +7411,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
-      <c r="D232" s="37"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="35"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="33" t="s">
+      <c r="C233" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="34"/>
+      <c r="D233" s="37"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7476,18 +7480,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="35"/>
-      <c r="C239" s="36"/>
-      <c r="D239" s="37"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="35"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="33" t="s">
+      <c r="C240" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="34"/>
+      <c r="D240" s="37"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7542,18 +7546,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="35"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="37"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="35"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="33" t="s">
+      <c r="C247" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="34"/>
+      <c r="D247" s="37"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7611,18 +7615,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="35"/>
-      <c r="C253" s="36"/>
-      <c r="D253" s="37"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="35"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="33" t="s">
+      <c r="C254" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="34"/>
+      <c r="D254" s="37"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7677,18 +7681,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="35"/>
-      <c r="C260" s="36"/>
-      <c r="D260" s="37"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="35"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="33" t="s">
+      <c r="C261" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="34"/>
+      <c r="D261" s="37"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7746,18 +7750,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="35"/>
-      <c r="C267" s="36"/>
-      <c r="D267" s="37"/>
+      <c r="B267" s="33"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="35"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="33" t="s">
+      <c r="C268" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="34"/>
+      <c r="D268" s="37"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7812,18 +7816,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="35"/>
-      <c r="C274" s="36"/>
-      <c r="D274" s="37"/>
+      <c r="B274" s="33"/>
+      <c r="C274" s="34"/>
+      <c r="D274" s="35"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="33" t="s">
+      <c r="C275" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="34"/>
+      <c r="D275" s="37"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7892,18 +7896,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="35"/>
-      <c r="C282" s="36"/>
-      <c r="D282" s="37"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="34"/>
+      <c r="D282" s="35"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="C283" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="34"/>
+      <c r="D283" s="37"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7939,18 +7943,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="35"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="37"/>
+      <c r="B287" s="33"/>
+      <c r="C287" s="34"/>
+      <c r="D287" s="35"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="33" t="s">
+      <c r="C288" s="36" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="34"/>
+      <c r="D288" s="37"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8008,18 +8012,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="35"/>
-      <c r="C294" s="36"/>
-      <c r="D294" s="37"/>
+      <c r="B294" s="33"/>
+      <c r="C294" s="34"/>
+      <c r="D294" s="35"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="33" t="s">
+      <c r="C295" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="34"/>
+      <c r="D295" s="37"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8077,18 +8081,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="35"/>
-      <c r="C301" s="36"/>
-      <c r="D301" s="37"/>
+      <c r="B301" s="33"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="35"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="33" t="s">
+      <c r="C302" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="34"/>
+      <c r="D302" s="37"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8143,18 +8147,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="35"/>
-      <c r="C308" s="36"/>
-      <c r="D308" s="37"/>
+      <c r="B308" s="33"/>
+      <c r="C308" s="34"/>
+      <c r="D308" s="35"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="33" t="s">
+      <c r="C309" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="34"/>
+      <c r="D309" s="37"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8212,18 +8216,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="35"/>
-      <c r="C315" s="36"/>
-      <c r="D315" s="37"/>
+      <c r="B315" s="33"/>
+      <c r="C315" s="34"/>
+      <c r="D315" s="35"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="33" t="s">
+      <c r="C316" s="36" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="34"/>
+      <c r="D316" s="37"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8281,18 +8285,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="35"/>
-      <c r="C322" s="36"/>
-      <c r="D322" s="37"/>
+      <c r="B322" s="33"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="35"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="33" t="s">
+      <c r="C323" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="34"/>
+      <c r="D323" s="37"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8350,18 +8354,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="35"/>
-      <c r="C329" s="36"/>
-      <c r="D329" s="37"/>
+      <c r="B329" s="33"/>
+      <c r="C329" s="34"/>
+      <c r="D329" s="35"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="33" t="s">
+      <c r="C330" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="34"/>
+      <c r="D330" s="37"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8397,18 +8401,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="35"/>
-      <c r="C334" s="36"/>
-      <c r="D334" s="37"/>
+      <c r="B334" s="33"/>
+      <c r="C334" s="34"/>
+      <c r="D334" s="35"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="33" t="s">
+      <c r="C335" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="34"/>
+      <c r="D335" s="37"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8474,18 +8478,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="35"/>
-      <c r="C342" s="36"/>
-      <c r="D342" s="37"/>
+      <c r="B342" s="33"/>
+      <c r="C342" s="34"/>
+      <c r="D342" s="35"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="33" t="s">
+      <c r="C343" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="34"/>
+      <c r="D343" s="37"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8543,18 +8547,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="35"/>
-      <c r="C349" s="36"/>
-      <c r="D349" s="37"/>
+      <c r="B349" s="33"/>
+      <c r="C349" s="34"/>
+      <c r="D349" s="35"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="33" t="s">
+      <c r="C350" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="34"/>
+      <c r="D350" s="37"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8612,18 +8616,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="35"/>
-      <c r="C356" s="36"/>
-      <c r="D356" s="37"/>
+      <c r="B356" s="33"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="35"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="33" t="s">
+      <c r="C357" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="34"/>
+      <c r="D357" s="37"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8681,18 +8685,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="35"/>
-      <c r="C363" s="36"/>
-      <c r="D363" s="37"/>
+      <c r="B363" s="33"/>
+      <c r="C363" s="34"/>
+      <c r="D363" s="35"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="33" t="s">
+      <c r="C364" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="34"/>
+      <c r="D364" s="37"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8750,18 +8754,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
-      <c r="C370" s="36"/>
-      <c r="D370" s="37"/>
+      <c r="B370" s="33"/>
+      <c r="C370" s="34"/>
+      <c r="D370" s="35"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="34"/>
+      <c r="D371" s="37"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8819,18 +8823,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
-      <c r="C377" s="36"/>
-      <c r="D377" s="37"/>
+      <c r="B377" s="33"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="35"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="33" t="s">
+      <c r="C378" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="34"/>
+      <c r="D378" s="37"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8888,18 +8892,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
-      <c r="C384" s="36"/>
-      <c r="D384" s="37"/>
+      <c r="B384" s="33"/>
+      <c r="C384" s="34"/>
+      <c r="D384" s="35"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="33" t="s">
+      <c r="C385" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="34"/>
+      <c r="D385" s="37"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8957,18 +8961,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="C391" s="36"/>
-      <c r="D391" s="37"/>
+      <c r="B391" s="33"/>
+      <c r="C391" s="34"/>
+      <c r="D391" s="35"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="33" t="s">
+      <c r="C392" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="34"/>
+      <c r="D392" s="37"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9026,18 +9030,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="C398" s="36"/>
-      <c r="D398" s="37"/>
+      <c r="B398" s="33"/>
+      <c r="C398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="33" t="s">
+      <c r="C399" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="34"/>
+      <c r="D399" s="37"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9095,18 +9099,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="C405" s="36"/>
-      <c r="D405" s="37"/>
+      <c r="B405" s="33"/>
+      <c r="C405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="38" t="s">
+      <c r="C406" s="47" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="39"/>
+      <c r="D406" s="48"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9164,18 +9168,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="C412" s="36"/>
-      <c r="D412" s="37"/>
+      <c r="B412" s="33"/>
+      <c r="C412" s="34"/>
+      <c r="D412" s="35"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="33" t="s">
+      <c r="C413" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="34"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9233,18 +9237,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="C419" s="36"/>
-      <c r="D419" s="37"/>
+      <c r="B419" s="33"/>
+      <c r="C419" s="34"/>
+      <c r="D419" s="35"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="33" t="s">
+      <c r="C420" s="36" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="34"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9302,18 +9306,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="C426" s="36"/>
-      <c r="D426" s="37"/>
+      <c r="B426" s="33"/>
+      <c r="C426" s="34"/>
+      <c r="D426" s="35"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="33" t="s">
+      <c r="C427" s="36" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="34"/>
+      <c r="D427" s="37"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9360,18 +9364,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="C432" s="36"/>
-      <c r="D432" s="37"/>
+      <c r="B432" s="33"/>
+      <c r="C432" s="34"/>
+      <c r="D432" s="35"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="33" t="s">
+      <c r="C433" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="34"/>
+      <c r="D433" s="37"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9451,18 +9455,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="C441" s="36"/>
-      <c r="D441" s="37"/>
+      <c r="B441" s="33"/>
+      <c r="C441" s="34"/>
+      <c r="D441" s="35"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="33" t="s">
+      <c r="C442" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="34"/>
+      <c r="D442" s="37"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9520,18 +9524,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="C448" s="36"/>
-      <c r="D448" s="37"/>
+      <c r="B448" s="33"/>
+      <c r="C448" s="34"/>
+      <c r="D448" s="35"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="33" t="s">
+      <c r="C449" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="34"/>
+      <c r="D449" s="37"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9589,18 +9593,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="C455" s="36"/>
-      <c r="D455" s="37"/>
+      <c r="B455" s="33"/>
+      <c r="C455" s="34"/>
+      <c r="D455" s="35"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="36" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="34"/>
+      <c r="D456" s="37"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9658,18 +9662,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="C462" s="36"/>
-      <c r="D462" s="37"/>
+      <c r="B462" s="33"/>
+      <c r="C462" s="34"/>
+      <c r="D462" s="35"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="33" t="s">
+      <c r="C463" s="36" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="34"/>
+      <c r="D463" s="37"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9727,18 +9731,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="37"/>
+      <c r="B469" s="33"/>
+      <c r="C469" s="34"/>
+      <c r="D469" s="35"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="33" t="s">
+      <c r="C470" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="34"/>
+      <c r="D470" s="37"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9796,18 +9800,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="C476" s="36"/>
-      <c r="D476" s="37"/>
+      <c r="B476" s="33"/>
+      <c r="C476" s="34"/>
+      <c r="D476" s="35"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="33" t="s">
+      <c r="C477" s="36" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="34"/>
+      <c r="D477" s="37"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9865,23 +9869,26 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="C483" s="36"/>
-      <c r="D483" s="37"/>
+      <c r="B483" s="33"/>
+      <c r="C483" s="34"/>
+      <c r="D483" s="35"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="33" t="s">
+      <c r="C484" s="36" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="34"/>
+      <c r="D484" s="37"/>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
         <v>45257</v>
       </c>
+      <c r="C485" s="7" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B486" s="16">
@@ -9904,16 +9911,16 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="C490" s="36"/>
-      <c r="D490" s="37"/>
+      <c r="B490" s="33"/>
+      <c r="C490" s="34"/>
+      <c r="D490" s="35"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="33"/>
-      <c r="D491" s="34"/>
+      <c r="C491" s="36"/>
+      <c r="D491" s="37"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9922,16 +9929,112 @@
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="C309:D309"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="C295:D295"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
     <mergeCell ref="B455:D455"/>
     <mergeCell ref="C456:D456"/>
     <mergeCell ref="B363:D363"/>
@@ -9956,112 +10059,16 @@
     <mergeCell ref="C427:D427"/>
     <mergeCell ref="B391:D391"/>
     <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C309:D309"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="C295:D295"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
+++ b/personal_tool/work/WorkReportFill/work_report_fill/file/日报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Python\PersonalTool\personal_tool\work\WorkReportFill\work_report_fill\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F3D622-B0D0-4D29-BA38-A510E35E654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E31098D-69FC-4B11-8089-0EF83361481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4231,7 +4231,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>薪酬分发场景优化提交影像异常处理。</t>
+    <t>薪酬分发场景优化提交影像异常处理。
+整理公共组件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4827,6 +4828,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4836,10 +4843,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4868,12 +4875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5208,19 +5209,19 @@
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
@@ -5282,19 +5283,19 @@
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B15" s="16">
@@ -5353,18 +5354,18 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
@@ -5422,18 +5423,18 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
@@ -5491,18 +5492,18 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
@@ -5560,18 +5561,18 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="37"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
@@ -5629,18 +5630,18 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="37"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="37"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
@@ -5698,18 +5699,18 @@
       </c>
     </row>
     <row r="55" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="37"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
@@ -5767,18 +5768,18 @@
       </c>
     </row>
     <row r="62" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
@@ -5825,18 +5826,18 @@
       </c>
     </row>
     <row r="68" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D69" s="37"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
@@ -5894,18 +5895,18 @@
       </c>
     </row>
     <row r="75" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="33"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="37"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="37"/>
+      <c r="D76" s="34"/>
     </row>
     <row r="77" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
@@ -5960,18 +5961,18 @@
       </c>
     </row>
     <row r="82" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="37"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D83" s="37"/>
+      <c r="D83" s="34"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="16">
@@ -6045,18 +6046,18 @@
       </c>
     </row>
     <row r="91" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="37"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="34"/>
     </row>
     <row r="93" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B93" s="16">
@@ -6114,18 +6115,18 @@
       </c>
     </row>
     <row r="98" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
-      <c r="C98" s="34"/>
-      <c r="D98" s="35"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="37"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="D99" s="37"/>
+      <c r="D99" s="34"/>
     </row>
     <row r="100" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B100" s="16">
@@ -6183,18 +6184,18 @@
       </c>
     </row>
     <row r="105" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="33"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="35"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="37"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D106" s="37"/>
+      <c r="D106" s="34"/>
     </row>
     <row r="107" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B107" s="16">
@@ -6252,18 +6253,18 @@
       </c>
     </row>
     <row r="112" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="37"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="36" t="s">
+      <c r="C113" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="37"/>
+      <c r="D113" s="34"/>
     </row>
     <row r="114" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B114" s="16">
@@ -6321,18 +6322,18 @@
       </c>
     </row>
     <row r="119" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="33"/>
-      <c r="C119" s="34"/>
-      <c r="D119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="37"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="36" t="s">
+      <c r="C120" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D120" s="37"/>
+      <c r="D120" s="34"/>
     </row>
     <row r="121" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B121" s="16">
@@ -6390,18 +6391,18 @@
       </c>
     </row>
     <row r="126" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="37"/>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D127" s="37"/>
+      <c r="D127" s="34"/>
     </row>
     <row r="128" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B128" s="16">
@@ -6459,18 +6460,18 @@
       </c>
     </row>
     <row r="133" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="37"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="37"/>
+      <c r="D134" s="34"/>
     </row>
     <row r="135" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B135" s="16">
@@ -6528,16 +6529,16 @@
       </c>
     </row>
     <row r="140" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="33"/>
-      <c r="C140" s="34"/>
-      <c r="D140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="37"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="34"/>
     </row>
     <row r="142" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B142" s="16">
@@ -6595,16 +6596,16 @@
       </c>
     </row>
     <row r="147" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="33"/>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="37"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="36"/>
-      <c r="D148" s="37"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="34"/>
     </row>
     <row r="149" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B149" s="16">
@@ -6662,16 +6663,16 @@
       </c>
     </row>
     <row r="154" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="33"/>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="37"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C155" s="36"/>
-      <c r="D155" s="37"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="34"/>
     </row>
     <row r="156" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B156" s="16">
@@ -6729,16 +6730,16 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="34"/>
-      <c r="D161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="37"/>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C162" s="36"/>
-      <c r="D162" s="37"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="34"/>
     </row>
     <row r="163" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B163" s="16">
@@ -6796,16 +6797,16 @@
       </c>
     </row>
     <row r="168" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="37"/>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C169" s="36"/>
-      <c r="D169" s="37"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="34"/>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B170" s="16">
@@ -6852,16 +6853,16 @@
       </c>
     </row>
     <row r="174" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="35"/>
+      <c r="B174" s="35"/>
+      <c r="C174" s="36"/>
+      <c r="D174" s="37"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C175" s="36"/>
-      <c r="D175" s="37"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="34"/>
     </row>
     <row r="176" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B176" s="16">
@@ -6919,16 +6920,16 @@
       </c>
     </row>
     <row r="181" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="35"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="37"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B182" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C182" s="36"/>
-      <c r="D182" s="37"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="34"/>
     </row>
     <row r="183" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B183" s="16">
@@ -6983,16 +6984,16 @@
       </c>
     </row>
     <row r="188" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="35"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="37"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B189" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C189" s="36"/>
-      <c r="D189" s="37"/>
+      <c r="C189" s="33"/>
+      <c r="D189" s="34"/>
     </row>
     <row r="190" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B190" s="16">
@@ -7072,16 +7073,16 @@
       </c>
     </row>
     <row r="197" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="33"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="35"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="37"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C198" s="36"/>
-      <c r="D198" s="37"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="34"/>
     </row>
     <row r="199" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B199" s="16">
@@ -7139,16 +7140,16 @@
       </c>
     </row>
     <row r="204" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="33"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="35"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="37"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C205" s="36"/>
-      <c r="D205" s="37"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="34"/>
     </row>
     <row r="206" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B206" s="16">
@@ -7206,16 +7207,16 @@
       </c>
     </row>
     <row r="211" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="33"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="35"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="37"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="36"/>
-      <c r="D212" s="37"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="34"/>
     </row>
     <row r="213" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B213" s="16">
@@ -7273,18 +7274,18 @@
       </c>
     </row>
     <row r="218" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="33"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="35"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="37"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C219" s="36" t="s">
+      <c r="C219" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="D219" s="37"/>
+      <c r="D219" s="34"/>
     </row>
     <row r="220" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B220" s="16">
@@ -7342,18 +7343,18 @@
       </c>
     </row>
     <row r="225" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="33"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="35"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="37"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="37"/>
+      <c r="D226" s="34"/>
     </row>
     <row r="227" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B227" s="16">
@@ -7411,18 +7412,18 @@
       </c>
     </row>
     <row r="232" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="33"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="35"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="37"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B233" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="D233" s="37"/>
+      <c r="D233" s="34"/>
     </row>
     <row r="234" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B234" s="16">
@@ -7480,18 +7481,18 @@
       </c>
     </row>
     <row r="239" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="33"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="35"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="37"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B240" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="36" t="s">
+      <c r="C240" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D240" s="37"/>
+      <c r="D240" s="34"/>
     </row>
     <row r="241" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B241" s="16">
@@ -7546,18 +7547,18 @@
       </c>
     </row>
     <row r="246" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="33"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="35"/>
+      <c r="B246" s="35"/>
+      <c r="C246" s="36"/>
+      <c r="D246" s="37"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="D247" s="37"/>
+      <c r="D247" s="34"/>
     </row>
     <row r="248" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B248" s="16">
@@ -7615,18 +7616,18 @@
       </c>
     </row>
     <row r="253" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="33"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="35"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="37"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="D254" s="37"/>
+      <c r="D254" s="34"/>
     </row>
     <row r="255" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B255" s="16">
@@ -7681,18 +7682,18 @@
       </c>
     </row>
     <row r="260" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="33"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="35"/>
+      <c r="B260" s="35"/>
+      <c r="C260" s="36"/>
+      <c r="D260" s="37"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="36" t="s">
+      <c r="C261" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="D261" s="37"/>
+      <c r="D261" s="34"/>
     </row>
     <row r="262" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B262" s="16">
@@ -7750,18 +7751,18 @@
       </c>
     </row>
     <row r="267" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="33"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="35"/>
+      <c r="B267" s="35"/>
+      <c r="C267" s="36"/>
+      <c r="D267" s="37"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="D268" s="37"/>
+      <c r="D268" s="34"/>
     </row>
     <row r="269" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B269" s="16">
@@ -7816,18 +7817,18 @@
       </c>
     </row>
     <row r="274" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="33"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="35"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="36"/>
+      <c r="D274" s="37"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B275" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="D275" s="37"/>
+      <c r="D275" s="34"/>
     </row>
     <row r="276" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B276" s="16">
@@ -7896,18 +7897,18 @@
       </c>
     </row>
     <row r="282" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="33"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="35"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="37"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B283" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D283" s="37"/>
+      <c r="D283" s="34"/>
     </row>
     <row r="284" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B284" s="16">
@@ -7943,18 +7944,18 @@
       </c>
     </row>
     <row r="287" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="33"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="35"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="37"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B288" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="C288" s="33" t="s">
         <v>411</v>
       </c>
-      <c r="D288" s="37"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B289" s="16">
@@ -8012,18 +8013,18 @@
       </c>
     </row>
     <row r="294" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="33"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="35"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="36"/>
+      <c r="D294" s="37"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B295" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D295" s="37"/>
+      <c r="D295" s="34"/>
     </row>
     <row r="296" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B296" s="16">
@@ -8081,18 +8082,18 @@
       </c>
     </row>
     <row r="301" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B301" s="33"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="35"/>
+      <c r="B301" s="35"/>
+      <c r="C301" s="36"/>
+      <c r="D301" s="37"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B302" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="D302" s="37"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B303" s="16">
@@ -8147,18 +8148,18 @@
       </c>
     </row>
     <row r="308" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="33"/>
-      <c r="C308" s="34"/>
-      <c r="D308" s="35"/>
+      <c r="B308" s="35"/>
+      <c r="C308" s="36"/>
+      <c r="D308" s="37"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B309" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D309" s="37"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B310" s="16">
@@ -8216,18 +8217,18 @@
       </c>
     </row>
     <row r="315" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="33"/>
-      <c r="C315" s="34"/>
-      <c r="D315" s="35"/>
+      <c r="B315" s="35"/>
+      <c r="C315" s="36"/>
+      <c r="D315" s="37"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B316" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C316" s="36" t="s">
+      <c r="C316" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="D316" s="37"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B317" s="16">
@@ -8285,18 +8286,18 @@
       </c>
     </row>
     <row r="322" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="33"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="35"/>
+      <c r="B322" s="35"/>
+      <c r="C322" s="36"/>
+      <c r="D322" s="37"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="D323" s="37"/>
+      <c r="D323" s="34"/>
     </row>
     <row r="324" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B324" s="16">
@@ -8354,18 +8355,18 @@
       </c>
     </row>
     <row r="329" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="33"/>
-      <c r="C329" s="34"/>
-      <c r="D329" s="35"/>
+      <c r="B329" s="35"/>
+      <c r="C329" s="36"/>
+      <c r="D329" s="37"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C330" s="36" t="s">
+      <c r="C330" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="D330" s="37"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B331" s="16">
@@ -8401,18 +8402,18 @@
       </c>
     </row>
     <row r="334" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="33"/>
-      <c r="C334" s="34"/>
-      <c r="D334" s="35"/>
+      <c r="B334" s="35"/>
+      <c r="C334" s="36"/>
+      <c r="D334" s="37"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B335" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="33" t="s">
         <v>489</v>
       </c>
-      <c r="D335" s="37"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336" s="16">
@@ -8478,18 +8479,18 @@
       </c>
     </row>
     <row r="342" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="33"/>
-      <c r="C342" s="34"/>
-      <c r="D342" s="35"/>
+      <c r="B342" s="35"/>
+      <c r="C342" s="36"/>
+      <c r="D342" s="37"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D343" s="37"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B344" s="16">
@@ -8547,18 +8548,18 @@
       </c>
     </row>
     <row r="349" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="33"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="35"/>
+      <c r="B349" s="35"/>
+      <c r="C349" s="36"/>
+      <c r="D349" s="37"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="33" t="s">
         <v>508</v>
       </c>
-      <c r="D350" s="37"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B351" s="16">
@@ -8616,18 +8617,18 @@
       </c>
     </row>
     <row r="356" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B356" s="33"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="35"/>
+      <c r="B356" s="35"/>
+      <c r="C356" s="36"/>
+      <c r="D356" s="37"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="D357" s="37"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B358" s="16">
@@ -8685,18 +8686,18 @@
       </c>
     </row>
     <row r="363" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="33"/>
-      <c r="C363" s="34"/>
-      <c r="D363" s="35"/>
+      <c r="B363" s="35"/>
+      <c r="C363" s="36"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="D364" s="37"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B365" s="16">
@@ -8754,18 +8755,18 @@
       </c>
     </row>
     <row r="370" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="33"/>
-      <c r="C370" s="34"/>
-      <c r="D370" s="35"/>
+      <c r="B370" s="35"/>
+      <c r="C370" s="36"/>
+      <c r="D370" s="37"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B371" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C371" s="36" t="s">
+      <c r="C371" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="D371" s="37"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B372" s="16">
@@ -8823,18 +8824,18 @@
       </c>
     </row>
     <row r="377" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="33"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="35"/>
+      <c r="B377" s="35"/>
+      <c r="C377" s="36"/>
+      <c r="D377" s="37"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B378" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="D378" s="37"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B379" s="16">
@@ -8892,18 +8893,18 @@
       </c>
     </row>
     <row r="384" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="33"/>
-      <c r="C384" s="34"/>
-      <c r="D384" s="35"/>
+      <c r="B384" s="35"/>
+      <c r="C384" s="36"/>
+      <c r="D384" s="37"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D385" s="37"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B386" s="16">
@@ -8961,18 +8962,18 @@
       </c>
     </row>
     <row r="391" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="33"/>
-      <c r="C391" s="34"/>
-      <c r="D391" s="35"/>
+      <c r="B391" s="35"/>
+      <c r="C391" s="36"/>
+      <c r="D391" s="37"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C392" s="36" t="s">
+      <c r="C392" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="D392" s="37"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B393" s="16">
@@ -9030,18 +9031,18 @@
       </c>
     </row>
     <row r="398" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B398" s="33"/>
-      <c r="C398" s="34"/>
-      <c r="D398" s="35"/>
+      <c r="B398" s="35"/>
+      <c r="C398" s="36"/>
+      <c r="D398" s="37"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="33" t="s">
         <v>570</v>
       </c>
-      <c r="D399" s="37"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400" spans="2:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B400" s="16">
@@ -9099,18 +9100,18 @@
       </c>
     </row>
     <row r="405" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="33"/>
-      <c r="C405" s="34"/>
-      <c r="D405" s="35"/>
+      <c r="B405" s="35"/>
+      <c r="C405" s="36"/>
+      <c r="D405" s="37"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C406" s="47" t="s">
+      <c r="C406" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="D406" s="48"/>
+      <c r="D406" s="39"/>
     </row>
     <row r="407" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B407" s="16">
@@ -9168,18 +9169,18 @@
       </c>
     </row>
     <row r="412" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="33"/>
-      <c r="C412" s="34"/>
-      <c r="D412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="C412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C413" s="36" t="s">
+      <c r="C413" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D413" s="37"/>
+      <c r="D413" s="34"/>
     </row>
     <row r="414" spans="2:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="B414" s="16">
@@ -9237,18 +9238,18 @@
       </c>
     </row>
     <row r="419" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="33"/>
-      <c r="C419" s="34"/>
-      <c r="D419" s="35"/>
+      <c r="B419" s="35"/>
+      <c r="C419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D420" s="37"/>
+      <c r="D420" s="34"/>
     </row>
     <row r="421" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B421" s="16">
@@ -9306,18 +9307,18 @@
       </c>
     </row>
     <row r="426" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="33"/>
-      <c r="C426" s="34"/>
-      <c r="D426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="C426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="33" t="s">
         <v>615</v>
       </c>
-      <c r="D427" s="37"/>
+      <c r="D427" s="34"/>
     </row>
     <row r="428" spans="2:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B428" s="16">
@@ -9364,18 +9365,18 @@
       </c>
     </row>
     <row r="432" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="33"/>
-      <c r="C432" s="34"/>
-      <c r="D432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="C432" s="36"/>
+      <c r="D432" s="37"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C433" s="36" t="s">
+      <c r="C433" s="33" t="s">
         <v>628</v>
       </c>
-      <c r="D433" s="37"/>
+      <c r="D433" s="34"/>
     </row>
     <row r="434" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B434" s="16">
@@ -9455,18 +9456,18 @@
       </c>
     </row>
     <row r="441" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="33"/>
-      <c r="C441" s="34"/>
-      <c r="D441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="C441" s="36"/>
+      <c r="D441" s="37"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C442" s="36" t="s">
+      <c r="C442" s="33" t="s">
         <v>638</v>
       </c>
-      <c r="D442" s="37"/>
+      <c r="D442" s="34"/>
     </row>
     <row r="443" spans="2:4" ht="114" x14ac:dyDescent="0.2">
       <c r="B443" s="16">
@@ -9524,18 +9525,18 @@
       </c>
     </row>
     <row r="448" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="33"/>
-      <c r="C448" s="34"/>
-      <c r="D448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="C448" s="36"/>
+      <c r="D448" s="37"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="D449" s="37"/>
+      <c r="D449" s="34"/>
     </row>
     <row r="450" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B450" s="16">
@@ -9593,18 +9594,18 @@
       </c>
     </row>
     <row r="455" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="33"/>
-      <c r="C455" s="34"/>
-      <c r="D455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="C455" s="36"/>
+      <c r="D455" s="37"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C456" s="36" t="s">
+      <c r="C456" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="D456" s="37"/>
+      <c r="D456" s="34"/>
     </row>
     <row r="457" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B457" s="16">
@@ -9662,18 +9663,18 @@
       </c>
     </row>
     <row r="462" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="33"/>
-      <c r="C462" s="34"/>
-      <c r="D462" s="35"/>
+      <c r="B462" s="35"/>
+      <c r="C462" s="36"/>
+      <c r="D462" s="37"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="D463" s="37"/>
+      <c r="D463" s="34"/>
     </row>
     <row r="464" spans="2:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B464" s="16">
@@ -9731,18 +9732,18 @@
       </c>
     </row>
     <row r="469" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="33"/>
-      <c r="C469" s="34"/>
-      <c r="D469" s="35"/>
+      <c r="B469" s="35"/>
+      <c r="C469" s="36"/>
+      <c r="D469" s="37"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C470" s="36" t="s">
+      <c r="C470" s="33" t="s">
         <v>681</v>
       </c>
-      <c r="D470" s="37"/>
+      <c r="D470" s="34"/>
     </row>
     <row r="471" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B471" s="16">
@@ -9800,18 +9801,18 @@
       </c>
     </row>
     <row r="476" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="33"/>
-      <c r="C476" s="34"/>
-      <c r="D476" s="35"/>
+      <c r="B476" s="35"/>
+      <c r="C476" s="36"/>
+      <c r="D476" s="37"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C477" s="36" t="s">
+      <c r="C477" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="D477" s="37"/>
+      <c r="D477" s="34"/>
     </row>
     <row r="478" spans="2:4" ht="57" x14ac:dyDescent="0.2">
       <c r="B478" s="16">
@@ -9869,20 +9870,20 @@
       </c>
     </row>
     <row r="483" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B483" s="33"/>
-      <c r="C483" s="34"/>
-      <c r="D483" s="35"/>
+      <c r="B483" s="35"/>
+      <c r="C483" s="36"/>
+      <c r="D483" s="37"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B484" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="33" t="s">
         <v>700</v>
       </c>
-      <c r="D484" s="37"/>
-    </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D484" s="34"/>
+    </row>
+    <row r="485" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B485" s="16">
         <v>45257</v>
       </c>
@@ -9911,16 +9912,16 @@
       </c>
     </row>
     <row r="490" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B490" s="33"/>
-      <c r="C490" s="34"/>
-      <c r="D490" s="35"/>
+      <c r="B490" s="35"/>
+      <c r="C490" s="36"/>
+      <c r="D490" s="37"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B491" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C491" s="36"/>
-      <c r="D491" s="37"/>
+      <c r="C491" s="33"/>
+      <c r="D491" s="34"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B492" s="16">
@@ -9929,6 +9930,122 @@
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="C491:D491"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="C484:D484"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="C477:D477"/>
+    <mergeCell ref="B469:D469"/>
+    <mergeCell ref="C470:D470"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="C463:D463"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="C364:D364"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="C399:D399"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="C420:D420"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="C413:D413"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="C449:D449"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="C385:D385"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="C378:D378"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="C433:D433"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="C392:D392"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="C357:D357"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C343:D343"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="C335:D335"/>
+    <mergeCell ref="C330:D330"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B140:D140"/>
     <mergeCell ref="C309:D309"/>
     <mergeCell ref="B301:D301"/>
     <mergeCell ref="B405:D405"/>
@@ -9953,122 +10070,6 @@
     <mergeCell ref="C283:D283"/>
     <mergeCell ref="B322:D322"/>
     <mergeCell ref="C323:D323"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="C357:D357"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C343:D343"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="C335:D335"/>
-    <mergeCell ref="C330:D330"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="C364:D364"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="C399:D399"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="C420:D420"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="C413:D413"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="C449:D449"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="C385:D385"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="C378:D378"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="C433:D433"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="C392:D392"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="C491:D491"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="C484:D484"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="C477:D477"/>
-    <mergeCell ref="B469:D469"/>
-    <mergeCell ref="C470:D470"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="C463:D463"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
